--- a/data/Subset1_WithDialogActs/transcript_graphing_with_colors.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/transcript_graphing_with_colors.xlsx_with_dialog_acts.xlsx
@@ -965,12 +965,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1235,12 +1235,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1273,12 +1273,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2341,12 +2341,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3561,12 +3561,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3599,12 +3599,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
